--- a/Output/March/productivity_agent/productivity_agent_2022-03-08.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-08.xlsx
@@ -18741,7 +18741,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>3258</v>
+        <v>3390</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -18855,7 +18855,7 @@
         <v>0</v>
       </c>
       <c r="AZ56">
-        <v>423.1168831168831</v>
+        <v>440.2597402597402</v>
       </c>
       <c r="BA56">
         <v>0</v>
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="CL56">
-        <v>0.4977845683728037</v>
+        <v>0.5179526355996944</v>
       </c>
       <c r="CM56">
         <v>0</v>
@@ -19014,7 +19014,7 @@
         <v>0</v>
       </c>
       <c r="DA56">
-        <v>0.4977845683728037</v>
+        <v>0.5179526355996944</v>
       </c>
     </row>
     <row r="57" spans="1:105">
@@ -21594,7 +21594,7 @@
         <v>98</v>
       </c>
       <c r="N65">
-        <v>2854</v>
+        <v>2866</v>
       </c>
       <c r="O65">
         <v>98</v>
@@ -21708,7 +21708,7 @@
         <v>0</v>
       </c>
       <c r="AZ65">
-        <v>427.0324189526185</v>
+        <v>428.8279301745636</v>
       </c>
       <c r="BA65">
         <v>0</v>
@@ -21822,7 +21822,7 @@
         <v>0</v>
       </c>
       <c r="CL65">
-        <v>0.5023910811207276</v>
+        <v>0.5045034472641924</v>
       </c>
       <c r="CM65">
         <v>0</v>
@@ -21867,7 +21867,7 @@
         <v>0</v>
       </c>
       <c r="DA65">
-        <v>0.5023910811207276</v>
+        <v>0.5045034472641924</v>
       </c>
     </row>
     <row r="66" spans="1:105">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -25195,7 +25195,7 @@
         <v>0</v>
       </c>
       <c r="AZ76">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="BA76">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="CL76">
-        <v>0.2788235294117647</v>
+        <v>0.3</v>
       </c>
       <c r="CM76">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="DA76">
-        <v>0.3999214065791606</v>
+        <v>0.4007422000128131</v>
       </c>
     </row>
     <row r="77" spans="1:105">
